--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3474245.112117209</v>
+        <v>3471993.032406002</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>126.5388824951709</v>
+        <v>60.03388914270748</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.12106316694091</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.3606976213221</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>362.4654100627721</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>148.4348925031071</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>61.36917500887012</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>78.78083674902071</v>
+        <v>129.5398680316063</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>88.89700561060515</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>14.57567088453384</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710058</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>54.32649042089665</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>81.1139899822969</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>20.9284728855285</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>218.227129859624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>121.8674042714177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235232844</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>41.74133133758806</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>112.1382188876863</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.74133133758807</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.41782514684017</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>144.108843301494</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3197.788768583745</v>
+        <v>2364.103749387412</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1990.637991126332</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1600.49865915052</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.7853475753374</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>376.7853475753374</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>226.6687081630017</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>78.75561458060858</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>78.75561458060858</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>78.75561458060858</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>805.3711496350312</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>583.6045342045572</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753374</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>376.7853475753374</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.7853475753374</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2325.505862906803</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4747,22 +4747,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>770.9527709665616</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5011820977088</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>66.51211643218343</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218343</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X7" t="n">
         <v>66.51211643218343</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,25 +4869,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,16 +4899,16 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>624.6477645191717</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="V10" t="n">
-        <v>624.6477645191717</v>
+        <v>377.0996507379409</v>
       </c>
       <c r="W10" t="n">
-        <v>624.6477645191717</v>
+        <v>377.0996507379409</v>
       </c>
       <c r="X10" t="n">
-        <v>624.6477645191717</v>
+        <v>377.0996507379409</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6477645191717</v>
+        <v>156.3070715944108</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,25 +5176,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,16 +5279,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179085</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900017</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4949469776659</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>295.5818533952728</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>148.6919058973624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>148.6919058973624</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
         <v>388.6197041282753</v>
@@ -5659,16 +5659,16 @@
         <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.955532171245</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6039970014847</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1052.829365488567</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1234.477830318806</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6695,19 +6695,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,7 +6716,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273908</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>590.909656468498</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649657</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888944</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876697</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179095</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7163,61 +7163,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192201</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111677</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075772</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332384</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7239,28 +7239,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797183</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797183</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438167</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876697</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>430.782665075334</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929408</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>135.9796239950305</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.7519863413023</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>184.7035232280589</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1355.182581213089</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.193030315072</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.400451171542</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>85.96822242532724</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>125.5054897610407</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>68.29586847696697</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5054897610398</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25363,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>139.9994244361417</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>123.7828069546808</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.4141550350971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>142.414155035097</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>681144.543869563</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="O2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132559</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25168002746068e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551164</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="F4" t="n">
+        <v>16046.58397189204</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16046.58397189204</v>
+      </c>
+      <c r="H4" t="n">
         <v>16046.583971892</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189196</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="K4" t="n">
+        <v>16046.58397189201</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16046.58397189196</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="N4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.58397189195</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16046.58397189208</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685764</v>
+        <v>-770811.793268576</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590167</v>
+        <v>557932.9524590163</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590163</v>
+        <v>557932.9524590173</v>
       </c>
       <c r="E6" t="n">
-        <v>304029.0291101012</v>
+        <v>303994.291184665</v>
       </c>
       <c r="F6" t="n">
-        <v>629441.4909174561</v>
+        <v>629406.7529920206</v>
       </c>
       <c r="G6" t="n">
-        <v>629441.4909174563</v>
+        <v>629406.7529920206</v>
       </c>
       <c r="H6" t="n">
-        <v>629441.4909174562</v>
+        <v>629406.7529920206</v>
       </c>
       <c r="I6" t="n">
-        <v>629441.4909174562</v>
+        <v>629406.7529920208</v>
       </c>
       <c r="J6" t="n">
-        <v>411910.2885201788</v>
+        <v>411875.5505947432</v>
       </c>
       <c r="K6" t="n">
-        <v>629441.4909174563</v>
+        <v>629406.7529920206</v>
       </c>
       <c r="L6" t="n">
-        <v>629441.490917456</v>
+        <v>629406.7529920207</v>
       </c>
       <c r="M6" t="n">
-        <v>544386.4629819449</v>
+        <v>544351.7250565086</v>
       </c>
       <c r="N6" t="n">
-        <v>629441.4909174567</v>
+        <v>629406.7529920206</v>
       </c>
       <c r="O6" t="n">
-        <v>629441.4909174566</v>
+        <v>629406.7529920202</v>
       </c>
       <c r="P6" t="n">
-        <v>629441.4909174562</v>
+        <v>629406.7529920205</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>222.7020862222421</v>
+        <v>289.2070795747055</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>132.6339517473799</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,22 +27585,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.40832771011975</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.26843160070848</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>41.33413282833476</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>190.7684683149579</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>290.9502639294483</v>
+        <v>240.1912326468627</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>90.93497457133215</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>271.636167321079</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.685141681368099e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,13 +29746,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-8.424525727746915e-14</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283056</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130967</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,16 +32078,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32564,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>321.1112257697148</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868568</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067192</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622656</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>216.857296338707</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394661</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707519</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>187.1368183553845</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648384</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236313316</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402473</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>90.01966967204031</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
